--- a/Assignment3(Bug_Report).xlsx
+++ b/Assignment3(Bug_Report).xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
+  <si>
+    <t>BUG REPORT ON https://automationintesting.online/</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -355,13 +358,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -831,19 +835,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,7 +856,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,9 +980,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1333,10 +1340,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1354,577 +1361,587 @@
     <col min="12" max="12" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18.3" spans="3:5">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="43.2" spans="1:12">
-      <c r="A2" s="2">
-        <v>21001</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="43.2" spans="1:12">
-      <c r="A3" s="2">
-        <v>21002</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:12">
-      <c r="A4" s="2">
-        <v>21003</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="A4" s="3">
+        <v>21001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>27</v>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:12">
-      <c r="A5" s="2">
-        <v>21004</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="A5" s="3">
+        <v>21002</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>33</v>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:12">
-      <c r="A6" s="2">
-        <v>21005</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3">
+        <v>21003</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:12">
+      <c r="A7" s="3">
+        <v>21004</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2">
-        <v>21006</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>44</v>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:12">
-      <c r="A8" s="2">
-        <v>21007</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3">
+        <v>21005</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3">
+        <v>21006</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" ht="28.8" spans="1:12">
-      <c r="A9" s="2">
-        <v>21008</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>57</v>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:12">
-      <c r="A10" s="2">
-        <v>21009</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="A10" s="3">
+        <v>21007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>62</v>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
+        <v>21008</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:12">
+      <c r="A12" s="3">
+        <v>21009</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:12">
+      <c r="A13" s="3">
         <v>21010</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>67</v>
+      <c r="K13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2">
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
         <v>21011</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" ht="43.2" spans="1:12">
-      <c r="A13" s="2">
-        <v>21012</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" ht="28.8" spans="1:12">
-      <c r="A14" s="2">
-        <v>21013</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>84</v>
+      <c r="K14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:12">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
+        <v>21012</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:12">
+      <c r="A16" s="3">
+        <v>21013</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="43.2" spans="1:12">
+      <c r="A17" s="3">
         <v>21014</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>89</v>
+      <c r="K17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
